--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ncam1-Robo1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ncam1-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.411380039520636</v>
+        <v>0.66889</v>
       </c>
       <c r="H2">
-        <v>0.411380039520636</v>
+        <v>1.33778</v>
       </c>
       <c r="I2">
-        <v>0.008397448250399588</v>
+        <v>0.01180009979280774</v>
       </c>
       <c r="J2">
-        <v>0.008397448250399588</v>
+        <v>0.01150792026947964</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3525361129076</v>
+        <v>0.3526105</v>
       </c>
       <c r="N2">
-        <v>0.3525361129076</v>
+        <v>0.705221</v>
       </c>
       <c r="O2">
-        <v>0.02266695876843876</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="P2">
-        <v>0.02266695876843876</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="Q2">
-        <v>0.1450263200603799</v>
+        <v>0.235857637345</v>
       </c>
       <c r="R2">
-        <v>0.1450263200603799</v>
+        <v>0.9434305493799999</v>
       </c>
       <c r="S2">
-        <v>0.0001903446132519056</v>
+        <v>0.0002183370865974763</v>
       </c>
       <c r="T2">
-        <v>0.0001903446132519056</v>
+        <v>0.0001620195478972277</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.411380039520636</v>
+        <v>0.66889</v>
       </c>
       <c r="H3">
-        <v>0.411380039520636</v>
+        <v>1.33778</v>
       </c>
       <c r="I3">
-        <v>0.008397448250399588</v>
+        <v>0.01180009979280774</v>
       </c>
       <c r="J3">
-        <v>0.008397448250399588</v>
+        <v>0.01150792026947964</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.5535625572773</v>
+        <v>11.46237866666667</v>
       </c>
       <c r="N3">
-        <v>10.5535625572773</v>
+        <v>34.387136</v>
       </c>
       <c r="O3">
-        <v>0.6785607448069941</v>
+        <v>0.6014802088308917</v>
       </c>
       <c r="P3">
-        <v>0.6785607448069941</v>
+        <v>0.6865012648426838</v>
       </c>
       <c r="Q3">
-        <v>4.34152498189624</v>
+        <v>7.667070466346666</v>
       </c>
       <c r="R3">
-        <v>4.34152498189624</v>
+        <v>46.00242279808</v>
       </c>
       <c r="S3">
-        <v>0.005698178739269334</v>
+        <v>0.007097526487603363</v>
       </c>
       <c r="T3">
-        <v>0.005698178739269334</v>
+        <v>0.007900201820706533</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.411380039520636</v>
+        <v>0.66889</v>
       </c>
       <c r="H4">
-        <v>0.411380039520636</v>
+        <v>1.33778</v>
       </c>
       <c r="I4">
-        <v>0.008397448250399588</v>
+        <v>0.01180009979280774</v>
       </c>
       <c r="J4">
-        <v>0.008397448250399588</v>
+        <v>0.01150792026947964</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.31979691957588</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N4">
-        <v>0.31979691957588</v>
+        <v>0.154567</v>
       </c>
       <c r="O4">
-        <v>0.02056193202595423</v>
+        <v>0.002703597980313465</v>
       </c>
       <c r="P4">
-        <v>0.02056193202595423</v>
+        <v>0.003085759773740364</v>
       </c>
       <c r="Q4">
-        <v>0.1315580694137032</v>
+        <v>0.03446277354333333</v>
       </c>
       <c r="R4">
-        <v>0.1315580694137032</v>
+        <v>0.20677664126</v>
       </c>
       <c r="S4">
-        <v>0.0001726677601161846</v>
+        <v>3.190272596733234E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001726677601161846</v>
+        <v>3.551067744697165E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.411380039520636</v>
+        <v>0.66889</v>
       </c>
       <c r="H5">
-        <v>0.411380039520636</v>
+        <v>1.33778</v>
       </c>
       <c r="I5">
-        <v>0.008397448250399588</v>
+        <v>0.01180009979280774</v>
       </c>
       <c r="J5">
-        <v>0.008397448250399588</v>
+        <v>0.01150792026947964</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.3269677876795</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N5">
-        <v>4.3269677876795</v>
+        <v>0.143093</v>
       </c>
       <c r="O5">
-        <v>0.2782103643986128</v>
+        <v>0.002502901303622343</v>
       </c>
       <c r="P5">
-        <v>0.2782103643986128</v>
+        <v>0.002856694011683153</v>
       </c>
       <c r="Q5">
-        <v>1.780028179500112</v>
+        <v>0.03190449225666667</v>
       </c>
       <c r="R5">
-        <v>1.780028179500112</v>
+        <v>0.19142695354</v>
       </c>
       <c r="S5">
-        <v>0.002336257137762163</v>
+        <v>2.953448515429223E-05</v>
       </c>
       <c r="T5">
-        <v>0.002336257137762163</v>
+        <v>3.287460692074966E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.04670685051394</v>
+        <v>0.66889</v>
       </c>
       <c r="H6">
-        <v>2.04670685051394</v>
+        <v>1.33778</v>
       </c>
       <c r="I6">
-        <v>0.04177916575864148</v>
+        <v>0.01180009979280774</v>
       </c>
       <c r="J6">
-        <v>0.04177916575864148</v>
+        <v>0.01150792026947964</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3525361129076</v>
+        <v>0.414919</v>
       </c>
       <c r="N6">
-        <v>0.3525361129076</v>
+        <v>1.244757</v>
       </c>
       <c r="O6">
-        <v>0.02266695876843876</v>
+        <v>0.02177258089489379</v>
       </c>
       <c r="P6">
-        <v>0.02266695876843876</v>
+        <v>0.02485020139280528</v>
       </c>
       <c r="Q6">
-        <v>0.7215380773415407</v>
+        <v>0.27753516991</v>
       </c>
       <c r="R6">
-        <v>0.7215380773415407</v>
+        <v>1.66521101946</v>
       </c>
       <c r="S6">
-        <v>0.0009470066276308949</v>
+        <v>0.000256918627306726</v>
       </c>
       <c r="T6">
-        <v>0.0009470066276308949</v>
+        <v>0.0002859741363089151</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.04670685051394</v>
+        <v>0.66889</v>
       </c>
       <c r="H7">
-        <v>2.04670685051394</v>
+        <v>1.33778</v>
       </c>
       <c r="I7">
-        <v>0.04177916575864148</v>
+        <v>0.01180009979280774</v>
       </c>
       <c r="J7">
-        <v>0.04177916575864148</v>
+        <v>0.01150792026947964</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.5535625572773</v>
+        <v>6.7278225</v>
       </c>
       <c r="N7">
-        <v>10.5535625572773</v>
+        <v>13.455645</v>
       </c>
       <c r="O7">
-        <v>0.6785607448069941</v>
+        <v>0.3530377245383715</v>
       </c>
       <c r="P7">
-        <v>0.6785607448069941</v>
+        <v>0.2686271200885743</v>
       </c>
       <c r="Q7">
-        <v>21.60004878330686</v>
+        <v>4.500173192025</v>
       </c>
       <c r="R7">
-        <v>21.60004878330686</v>
+        <v>18.0006927681</v>
       </c>
       <c r="S7">
-        <v>0.02834970183459863</v>
+        <v>0.004165880380178554</v>
       </c>
       <c r="T7">
-        <v>0.02834970183459863</v>
+        <v>0.003091339480199246</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.04670685051394</v>
+        <v>2.349703666666667</v>
       </c>
       <c r="H8">
-        <v>2.04670685051394</v>
+        <v>7.049111</v>
       </c>
       <c r="I8">
-        <v>0.04177916575864148</v>
+        <v>0.04145186465665943</v>
       </c>
       <c r="J8">
-        <v>0.04177916575864148</v>
+        <v>0.0606382270318826</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.31979691957588</v>
+        <v>0.3526105</v>
       </c>
       <c r="N8">
-        <v>0.31979691957588</v>
+        <v>0.705221</v>
       </c>
       <c r="O8">
-        <v>0.02056193202595423</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="P8">
-        <v>0.02056193202595423</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="Q8">
-        <v>0.6545305460692092</v>
+        <v>0.8285301847551666</v>
       </c>
       <c r="R8">
-        <v>0.6545305460692092</v>
+        <v>4.971181108531</v>
       </c>
       <c r="S8">
-        <v>0.0008590603664302608</v>
+        <v>0.0007669832901484665</v>
       </c>
       <c r="T8">
-        <v>0.0008590603664302608</v>
+        <v>0.0008537231662137082</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,805 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.04670685051394</v>
+        <v>2.349703666666667</v>
       </c>
       <c r="H9">
-        <v>2.04670685051394</v>
+        <v>7.049111</v>
       </c>
       <c r="I9">
-        <v>0.04177916575864148</v>
+        <v>0.04145186465665943</v>
       </c>
       <c r="J9">
-        <v>0.04177916575864148</v>
+        <v>0.0606382270318826</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.3269677876795</v>
+        <v>11.46237866666667</v>
       </c>
       <c r="N9">
-        <v>4.3269677876795</v>
+        <v>34.387136</v>
       </c>
       <c r="O9">
-        <v>0.2782103643986128</v>
+        <v>0.6014802088308917</v>
       </c>
       <c r="P9">
-        <v>0.2782103643986128</v>
+        <v>0.6865012648426838</v>
       </c>
       <c r="Q9">
-        <v>8.85603461299678</v>
+        <v>26.93319318178844</v>
       </c>
       <c r="R9">
-        <v>8.85603461299678</v>
+        <v>242.398738636096</v>
       </c>
       <c r="S9">
-        <v>0.01162339692998169</v>
+        <v>0.02493247621011737</v>
       </c>
       <c r="T9">
-        <v>0.01162339692998169</v>
+        <v>0.04162821955520523</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.122104105361669</v>
+        <v>2.349703666666667</v>
       </c>
       <c r="H10">
-        <v>0.122104105361669</v>
+        <v>7.049111</v>
       </c>
       <c r="I10">
-        <v>0.002492495521004779</v>
+        <v>0.04145186465665943</v>
       </c>
       <c r="J10">
-        <v>0.002492495521004779</v>
+        <v>0.0606382270318826</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.3525361129076</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N10">
-        <v>0.3525361129076</v>
+        <v>0.154567</v>
       </c>
       <c r="O10">
-        <v>0.02266695876843876</v>
+        <v>0.002703597980313465</v>
       </c>
       <c r="P10">
-        <v>0.02266695876843876</v>
+        <v>0.003085759773740364</v>
       </c>
       <c r="Q10">
-        <v>0.04304610667426283</v>
+        <v>0.1210622155485556</v>
       </c>
       <c r="R10">
-        <v>0.04304610667426283</v>
+        <v>1.089559939937</v>
       </c>
       <c r="S10">
-        <v>5.649729320513361E-05</v>
+        <v>0.0001120691775659715</v>
       </c>
       <c r="T10">
-        <v>5.649729320513361E-05</v>
+        <v>0.0001871150017259189</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.122104105361669</v>
+        <v>2.349703666666667</v>
       </c>
       <c r="H11">
-        <v>0.122104105361669</v>
+        <v>7.049111</v>
       </c>
       <c r="I11">
-        <v>0.002492495521004779</v>
+        <v>0.04145186465665943</v>
       </c>
       <c r="J11">
-        <v>0.002492495521004779</v>
+        <v>0.0606382270318826</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>10.5535625572773</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N11">
-        <v>10.5535625572773</v>
+        <v>0.143093</v>
       </c>
       <c r="O11">
-        <v>0.6785607448069941</v>
+        <v>0.002502901303622343</v>
       </c>
       <c r="P11">
-        <v>0.6785607448069941</v>
+        <v>0.002856694011683153</v>
       </c>
       <c r="Q11">
-        <v>1.288633314434752</v>
+        <v>0.1120753822581111</v>
       </c>
       <c r="R11">
-        <v>1.288633314434752</v>
+        <v>1.008678440323</v>
       </c>
       <c r="S11">
-        <v>0.0016913096171611</v>
+        <v>0.0001037499260867298</v>
       </c>
       <c r="T11">
-        <v>0.0016913096171611</v>
+        <v>0.0001732248600410625</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.122104105361669</v>
+        <v>2.349703666666667</v>
       </c>
       <c r="H12">
-        <v>0.122104105361669</v>
+        <v>7.049111</v>
       </c>
       <c r="I12">
-        <v>0.002492495521004779</v>
+        <v>0.04145186465665943</v>
       </c>
       <c r="J12">
-        <v>0.002492495521004779</v>
+        <v>0.0606382270318826</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.31979691957588</v>
+        <v>0.414919</v>
       </c>
       <c r="N12">
-        <v>0.31979691957588</v>
+        <v>1.244757</v>
       </c>
       <c r="O12">
-        <v>0.02056193202595423</v>
+        <v>0.02177258089489379</v>
       </c>
       <c r="P12">
-        <v>0.02056193202595423</v>
+        <v>0.02485020139280528</v>
       </c>
       <c r="Q12">
-        <v>0.03904851676223044</v>
+        <v>0.9749366956696668</v>
       </c>
       <c r="R12">
-        <v>0.03904851676223044</v>
+        <v>8.774430261027002</v>
       </c>
       <c r="S12">
-        <v>5.125052347789565E-05</v>
+        <v>0.0009025140764813062</v>
       </c>
       <c r="T12">
-        <v>5.125052347789565E-05</v>
+        <v>0.001506872153844932</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.122104105361669</v>
+        <v>2.349703666666667</v>
       </c>
       <c r="H13">
-        <v>0.122104105361669</v>
+        <v>7.049111</v>
       </c>
       <c r="I13">
-        <v>0.002492495521004779</v>
+        <v>0.04145186465665943</v>
       </c>
       <c r="J13">
-        <v>0.002492495521004779</v>
+        <v>0.0606382270318826</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.3269677876795</v>
+        <v>6.7278225</v>
       </c>
       <c r="N13">
-        <v>4.3269677876795</v>
+        <v>13.455645</v>
       </c>
       <c r="O13">
-        <v>0.2782103643986128</v>
+        <v>0.3530377245383715</v>
       </c>
       <c r="P13">
-        <v>0.2782103643986128</v>
+        <v>0.2686271200885743</v>
       </c>
       <c r="Q13">
-        <v>0.5283405306433655</v>
+        <v>15.8083891969325</v>
       </c>
       <c r="R13">
-        <v>0.5283405306433655</v>
+        <v>94.850335181595</v>
       </c>
       <c r="S13">
-        <v>0.0006934380871606499</v>
+        <v>0.01463407197625959</v>
       </c>
       <c r="T13">
-        <v>0.0006934380871606499</v>
+        <v>0.01628907229485176</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.295842232935032</v>
+        <v>0.02107333333333333</v>
       </c>
       <c r="H14">
-        <v>0.295842232935032</v>
+        <v>0.06322</v>
       </c>
       <c r="I14">
-        <v>0.006038989748383188</v>
+        <v>0.000371761330413723</v>
       </c>
       <c r="J14">
-        <v>0.006038989748383188</v>
+        <v>0.0005438343520134124</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3525361129076</v>
+        <v>0.3526105</v>
       </c>
       <c r="N14">
-        <v>0.3525361129076</v>
+        <v>0.705221</v>
       </c>
       <c r="O14">
-        <v>0.02266695876843876</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="P14">
-        <v>0.02266695876843876</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="Q14">
-        <v>0.1042950708328209</v>
+        <v>0.007430678603333333</v>
       </c>
       <c r="R14">
-        <v>0.1042950708328209</v>
+        <v>0.04458407162</v>
       </c>
       <c r="S14">
-        <v>0.0001368855316296261</v>
+        <v>6.878694859988167E-06</v>
       </c>
       <c r="T14">
-        <v>0.0001368855316296261</v>
+        <v>7.656622029080066E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.295842232935032</v>
+        <v>0.02107333333333333</v>
       </c>
       <c r="H15">
-        <v>0.295842232935032</v>
+        <v>0.06322</v>
       </c>
       <c r="I15">
-        <v>0.006038989748383188</v>
+        <v>0.000371761330413723</v>
       </c>
       <c r="J15">
-        <v>0.006038989748383188</v>
+        <v>0.0005438343520134124</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.5535625572773</v>
+        <v>11.46237866666667</v>
       </c>
       <c r="N15">
-        <v>10.5535625572773</v>
+        <v>34.387136</v>
       </c>
       <c r="O15">
-        <v>0.6785607448069941</v>
+        <v>0.6014802088308917</v>
       </c>
       <c r="P15">
-        <v>0.6785607448069941</v>
+        <v>0.6865012648426838</v>
       </c>
       <c r="Q15">
-        <v>3.122189512364463</v>
+        <v>0.2415505264355555</v>
       </c>
       <c r="R15">
-        <v>3.122189512364463</v>
+        <v>2.17395473792</v>
       </c>
       <c r="S15">
-        <v>0.004097821381544698</v>
+        <v>0.0002236070826524962</v>
       </c>
       <c r="T15">
-        <v>0.004097821381544698</v>
+        <v>0.000373342970522109</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.295842232935032</v>
+        <v>0.02107333333333333</v>
       </c>
       <c r="H16">
-        <v>0.295842232935032</v>
+        <v>0.06322</v>
       </c>
       <c r="I16">
-        <v>0.006038989748383188</v>
+        <v>0.000371761330413723</v>
       </c>
       <c r="J16">
-        <v>0.006038989748383188</v>
+        <v>0.0005438343520134124</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.31979691957588</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N16">
-        <v>0.31979691957588</v>
+        <v>0.154567</v>
       </c>
       <c r="O16">
-        <v>0.02056193202595423</v>
+        <v>0.002703597980313465</v>
       </c>
       <c r="P16">
-        <v>0.02056193202595423</v>
+        <v>0.003085759773740364</v>
       </c>
       <c r="Q16">
-        <v>0.09460943477307318</v>
+        <v>0.001085747304444444</v>
       </c>
       <c r="R16">
-        <v>0.09460943477307318</v>
+        <v>0.009771725740000001</v>
       </c>
       <c r="S16">
-        <v>0.0001241732967116896</v>
+        <v>1.005093182065188E-06</v>
       </c>
       <c r="T16">
-        <v>0.0001241732967116896</v>
+        <v>1.678142167021145E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.295842232935032</v>
+        <v>0.02107333333333333</v>
       </c>
       <c r="H17">
-        <v>0.295842232935032</v>
+        <v>0.06322</v>
       </c>
       <c r="I17">
-        <v>0.006038989748383188</v>
+        <v>0.000371761330413723</v>
       </c>
       <c r="J17">
-        <v>0.006038989748383188</v>
+        <v>0.0005438343520134124</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>4.3269677876795</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N17">
-        <v>4.3269677876795</v>
+        <v>0.143093</v>
       </c>
       <c r="O17">
-        <v>0.2782103643986128</v>
+        <v>0.002502901303622343</v>
       </c>
       <c r="P17">
-        <v>0.2782103643986128</v>
+        <v>0.002856694011683153</v>
       </c>
       <c r="Q17">
-        <v>1.280099812145059</v>
+        <v>0.001005148828888889</v>
       </c>
       <c r="R17">
-        <v>1.280099812145059</v>
+        <v>0.00904633946</v>
       </c>
       <c r="S17">
-        <v>0.001680109538497174</v>
+        <v>9.304819185288837E-07</v>
       </c>
       <c r="T17">
-        <v>0.001680109538497174</v>
+        <v>1.553568336744303E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>46.1126627723926</v>
+        <v>0.02107333333333333</v>
       </c>
       <c r="H18">
-        <v>46.1126627723926</v>
+        <v>0.06322</v>
       </c>
       <c r="I18">
-        <v>0.941291900721571</v>
+        <v>0.000371761330413723</v>
       </c>
       <c r="J18">
-        <v>0.941291900721571</v>
+        <v>0.0005438343520134124</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3525361129076</v>
+        <v>0.414919</v>
       </c>
       <c r="N18">
-        <v>0.3525361129076</v>
+        <v>1.244757</v>
       </c>
       <c r="O18">
-        <v>0.02266695876843876</v>
+        <v>0.02177258089489379</v>
       </c>
       <c r="P18">
-        <v>0.02266695876843876</v>
+        <v>0.02485020139280528</v>
       </c>
       <c r="Q18">
-        <v>16.25637888959828</v>
+        <v>0.008743726393333333</v>
       </c>
       <c r="R18">
-        <v>16.25637888959828</v>
+        <v>0.07869353754000001</v>
       </c>
       <c r="S18">
-        <v>0.0213362247027212</v>
+        <v>8.094203640026123E-06</v>
       </c>
       <c r="T18">
-        <v>0.0213362247027212</v>
+        <v>1.351439317185906E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>46.1126627723926</v>
+        <v>0.02107333333333333</v>
       </c>
       <c r="H19">
-        <v>46.1126627723926</v>
+        <v>0.06322</v>
       </c>
       <c r="I19">
-        <v>0.941291900721571</v>
+        <v>0.000371761330413723</v>
       </c>
       <c r="J19">
-        <v>0.941291900721571</v>
+        <v>0.0005438343520134124</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.5535625572773</v>
+        <v>6.7278225</v>
       </c>
       <c r="N19">
-        <v>10.5535625572773</v>
+        <v>13.455645</v>
       </c>
       <c r="O19">
-        <v>0.6785607448069941</v>
+        <v>0.3530377245383715</v>
       </c>
       <c r="P19">
-        <v>0.6785607448069941</v>
+        <v>0.2686271200885743</v>
       </c>
       <c r="Q19">
-        <v>486.6528712510774</v>
+        <v>0.14177764615</v>
       </c>
       <c r="R19">
-        <v>486.6528712510774</v>
+        <v>0.8506658769000001</v>
       </c>
       <c r="S19">
-        <v>0.6387237332344203</v>
+        <v>0.0001312457741606184</v>
       </c>
       <c r="T19">
-        <v>0.6387237332344203</v>
+        <v>0.0001460886557865989</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>46.1126627723926</v>
+        <v>0.128441</v>
       </c>
       <c r="H20">
-        <v>46.1126627723926</v>
+        <v>0.385323</v>
       </c>
       <c r="I20">
-        <v>0.941291900721571</v>
+        <v>0.002265868255599604</v>
       </c>
       <c r="J20">
-        <v>0.941291900721571</v>
+        <v>0.00331464542899184</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.31979691957588</v>
+        <v>0.3526105</v>
       </c>
       <c r="N20">
-        <v>0.31979691957588</v>
+        <v>0.705221</v>
       </c>
       <c r="O20">
-        <v>0.02056193202595423</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="P20">
-        <v>0.02056193202595423</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="Q20">
-        <v>14.74668750805251</v>
+        <v>0.0452896452305</v>
       </c>
       <c r="R20">
-        <v>14.74668750805251</v>
+        <v>0.271737871383</v>
       </c>
       <c r="S20">
-        <v>0.0193547800792182</v>
+        <v>4.192532963516641E-05</v>
       </c>
       <c r="T20">
-        <v>0.0193547800792182</v>
+        <v>4.666676004604902E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.128441</v>
+      </c>
+      <c r="H21">
+        <v>0.385323</v>
+      </c>
+      <c r="I21">
+        <v>0.002265868255599604</v>
+      </c>
+      <c r="J21">
+        <v>0.00331464542899184</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.46237866666667</v>
+      </c>
+      <c r="N21">
+        <v>34.387136</v>
+      </c>
+      <c r="O21">
+        <v>0.6014802088308917</v>
+      </c>
+      <c r="P21">
+        <v>0.6865012648426838</v>
+      </c>
+      <c r="Q21">
+        <v>1.472239378325333</v>
+      </c>
+      <c r="R21">
+        <v>13.250154404928</v>
+      </c>
+      <c r="S21">
+        <v>0.001362874911561338</v>
+      </c>
+      <c r="T21">
+        <v>0.002275508279507918</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.128441</v>
+      </c>
+      <c r="H22">
+        <v>0.385323</v>
+      </c>
+      <c r="I22">
+        <v>0.002265868255599604</v>
+      </c>
+      <c r="J22">
+        <v>0.00331464542899184</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.05152233333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.154567</v>
+      </c>
+      <c r="O22">
+        <v>0.002703597980313465</v>
+      </c>
+      <c r="P22">
+        <v>0.003085759773740364</v>
+      </c>
+      <c r="Q22">
+        <v>0.006617580015666667</v>
+      </c>
+      <c r="R22">
+        <v>0.059558220141</v>
+      </c>
+      <c r="S22">
+        <v>6.125996839495484E-06</v>
+      </c>
+      <c r="T22">
+        <v>1.022819952899539E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.128441</v>
+      </c>
+      <c r="H23">
+        <v>0.385323</v>
+      </c>
+      <c r="I23">
+        <v>0.002265868255599604</v>
+      </c>
+      <c r="J23">
+        <v>0.00331464542899184</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.04769766666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.143093</v>
+      </c>
+      <c r="O23">
+        <v>0.002502901303622343</v>
+      </c>
+      <c r="P23">
+        <v>0.002856694011683153</v>
+      </c>
+      <c r="Q23">
+        <v>0.006126336004333334</v>
+      </c>
+      <c r="R23">
+        <v>0.055137024039</v>
+      </c>
+      <c r="S23">
+        <v>5.671244610776733E-06</v>
+      </c>
+      <c r="T23">
+        <v>9.468927747853924E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.128441</v>
+      </c>
+      <c r="H24">
+        <v>0.385323</v>
+      </c>
+      <c r="I24">
+        <v>0.002265868255599604</v>
+      </c>
+      <c r="J24">
+        <v>0.00331464542899184</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.414919</v>
+      </c>
+      <c r="N24">
+        <v>1.244757</v>
+      </c>
+      <c r="O24">
+        <v>0.02177258089489379</v>
+      </c>
+      <c r="P24">
+        <v>0.02485020139280528</v>
+      </c>
+      <c r="Q24">
+        <v>0.05329261127900001</v>
+      </c>
+      <c r="R24">
+        <v>0.479633501511</v>
+      </c>
+      <c r="S24">
+        <v>4.933379989221426E-05</v>
+      </c>
+      <c r="T24">
+        <v>8.236960645618869E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.128441</v>
+      </c>
+      <c r="H25">
+        <v>0.385323</v>
+      </c>
+      <c r="I25">
+        <v>0.002265868255599604</v>
+      </c>
+      <c r="J25">
+        <v>0.00331464542899184</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.7278225</v>
+      </c>
+      <c r="N25">
+        <v>13.455645</v>
+      </c>
+      <c r="O25">
+        <v>0.3530377245383715</v>
+      </c>
+      <c r="P25">
+        <v>0.2686271200885743</v>
+      </c>
+      <c r="Q25">
+        <v>0.8641282497225</v>
+      </c>
+      <c r="R25">
+        <v>5.184769498335</v>
+      </c>
+      <c r="S25">
+        <v>0.0007999369730606133</v>
+      </c>
+      <c r="T25">
+        <v>0.0008904036557048347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>46.1126627723926</v>
-      </c>
-      <c r="H21">
-        <v>46.1126627723926</v>
-      </c>
-      <c r="I21">
-        <v>0.941291900721571</v>
-      </c>
-      <c r="J21">
-        <v>0.941291900721571</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>4.3269677876795</v>
-      </c>
-      <c r="N21">
-        <v>4.3269677876795</v>
-      </c>
-      <c r="O21">
-        <v>0.2782103643986128</v>
-      </c>
-      <c r="P21">
-        <v>0.2782103643986128</v>
-      </c>
-      <c r="Q21">
-        <v>199.5280064202705</v>
-      </c>
-      <c r="R21">
-        <v>199.5280064202705</v>
-      </c>
-      <c r="S21">
-        <v>0.2618771627052111</v>
-      </c>
-      <c r="T21">
-        <v>0.2618771627052111</v>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3791873333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.137562</v>
+      </c>
+      <c r="I26">
+        <v>0.006689363532870856</v>
+      </c>
+      <c r="J26">
+        <v>0.009785594640067724</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.3526105</v>
+      </c>
+      <c r="N26">
+        <v>0.705221</v>
+      </c>
+      <c r="O26">
+        <v>0.01850298645190735</v>
+      </c>
+      <c r="P26">
+        <v>0.01407895989051319</v>
+      </c>
+      <c r="Q26">
+        <v>0.1337054352003333</v>
+      </c>
+      <c r="R26">
+        <v>0.802232611202</v>
+      </c>
+      <c r="S26">
+        <v>0.0001237732028205925</v>
+      </c>
+      <c r="T26">
+        <v>0.0001377709944423344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.3791873333333333</v>
+      </c>
+      <c r="H27">
+        <v>1.137562</v>
+      </c>
+      <c r="I27">
+        <v>0.006689363532870856</v>
+      </c>
+      <c r="J27">
+        <v>0.009785594640067724</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>11.46237866666667</v>
+      </c>
+      <c r="N27">
+        <v>34.387136</v>
+      </c>
+      <c r="O27">
+        <v>0.6014802088308917</v>
+      </c>
+      <c r="P27">
+        <v>0.6865012648426838</v>
+      </c>
+      <c r="Q27">
+        <v>4.346388800270222</v>
+      </c>
+      <c r="R27">
+        <v>39.11749920243199</v>
+      </c>
+      <c r="S27">
+        <v>0.004023519774696914</v>
+      </c>
+      <c r="T27">
+        <v>0.00671782309764428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.3791873333333333</v>
+      </c>
+      <c r="H28">
+        <v>1.137562</v>
+      </c>
+      <c r="I28">
+        <v>0.006689363532870856</v>
+      </c>
+      <c r="J28">
+        <v>0.009785594640067724</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.05152233333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.154567</v>
+      </c>
+      <c r="O28">
+        <v>0.002703597980313465</v>
+      </c>
+      <c r="P28">
+        <v>0.003085759773740364</v>
+      </c>
+      <c r="Q28">
+        <v>0.01953661618377778</v>
+      </c>
+      <c r="R28">
+        <v>0.175829545654</v>
+      </c>
+      <c r="S28">
+        <v>1.808534973705219E-05</v>
+      </c>
+      <c r="T28">
+        <v>3.01959943024503E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.3791873333333333</v>
+      </c>
+      <c r="H29">
+        <v>1.137562</v>
+      </c>
+      <c r="I29">
+        <v>0.006689363532870856</v>
+      </c>
+      <c r="J29">
+        <v>0.009785594640067724</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.04769766666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.143093</v>
+      </c>
+      <c r="O29">
+        <v>0.002502901303622343</v>
+      </c>
+      <c r="P29">
+        <v>0.002856694011683153</v>
+      </c>
+      <c r="Q29">
+        <v>0.01808635102955556</v>
+      </c>
+      <c r="R29">
+        <v>0.162777159266</v>
+      </c>
+      <c r="S29">
+        <v>1.674281670682623E-05</v>
+      </c>
+      <c r="T29">
+        <v>2.795444960904022E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.3791873333333333</v>
+      </c>
+      <c r="H30">
+        <v>1.137562</v>
+      </c>
+      <c r="I30">
+        <v>0.006689363532870856</v>
+      </c>
+      <c r="J30">
+        <v>0.009785594640067724</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.414919</v>
+      </c>
+      <c r="N30">
+        <v>1.244757</v>
+      </c>
+      <c r="O30">
+        <v>0.02177258089489379</v>
+      </c>
+      <c r="P30">
+        <v>0.02485020139280528</v>
+      </c>
+      <c r="Q30">
+        <v>0.1573320291593333</v>
+      </c>
+      <c r="R30">
+        <v>1.415988262434</v>
+      </c>
+      <c r="S30">
+        <v>0.0001456447086547832</v>
+      </c>
+      <c r="T30">
+        <v>0.0002431739975540389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.3791873333333333</v>
+      </c>
+      <c r="H31">
+        <v>1.137562</v>
+      </c>
+      <c r="I31">
+        <v>0.006689363532870856</v>
+      </c>
+      <c r="J31">
+        <v>0.009785594640067724</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>6.7278225</v>
+      </c>
+      <c r="N31">
+        <v>13.455645</v>
+      </c>
+      <c r="O31">
+        <v>0.3530377245383715</v>
+      </c>
+      <c r="P31">
+        <v>0.2686271200885743</v>
+      </c>
+      <c r="Q31">
+        <v>2.551105072915</v>
+      </c>
+      <c r="R31">
+        <v>15.30663043749</v>
+      </c>
+      <c r="S31">
+        <v>0.002361597680254689</v>
+      </c>
+      <c r="T31">
+        <v>0.002628676106515581</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>53.1378185</v>
+      </c>
+      <c r="H32">
+        <v>106.275637</v>
+      </c>
+      <c r="I32">
+        <v>0.9374210424316487</v>
+      </c>
+      <c r="J32">
+        <v>0.9142097782775648</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.3526105</v>
+      </c>
+      <c r="N32">
+        <v>0.705221</v>
+      </c>
+      <c r="O32">
+        <v>0.01850298645190735</v>
+      </c>
+      <c r="P32">
+        <v>0.01407895989051319</v>
+      </c>
+      <c r="Q32">
+        <v>18.73695275019425</v>
+      </c>
+      <c r="R32">
+        <v>74.94781100077699</v>
+      </c>
+      <c r="S32">
+        <v>0.01734508884784566</v>
+      </c>
+      <c r="T32">
+        <v>0.0128711227998848</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>53.1378185</v>
+      </c>
+      <c r="H33">
+        <v>106.275637</v>
+      </c>
+      <c r="I33">
+        <v>0.9374210424316487</v>
+      </c>
+      <c r="J33">
+        <v>0.9142097782775648</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>11.46237866666667</v>
+      </c>
+      <c r="N33">
+        <v>34.387136</v>
+      </c>
+      <c r="O33">
+        <v>0.6014802088308917</v>
+      </c>
+      <c r="P33">
+        <v>0.6865012648426838</v>
+      </c>
+      <c r="Q33">
+        <v>609.0857971676053</v>
+      </c>
+      <c r="R33">
+        <v>3654.514783005632</v>
+      </c>
+      <c r="S33">
+        <v>0.5638402043642603</v>
+      </c>
+      <c r="T33">
+        <v>0.6276061691190977</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>53.1378185</v>
+      </c>
+      <c r="H34">
+        <v>106.275637</v>
+      </c>
+      <c r="I34">
+        <v>0.9374210424316487</v>
+      </c>
+      <c r="J34">
+        <v>0.9142097782775648</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.05152233333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.154567</v>
+      </c>
+      <c r="O34">
+        <v>0.002703597980313465</v>
+      </c>
+      <c r="P34">
+        <v>0.003085759773740364</v>
+      </c>
+      <c r="Q34">
+        <v>2.737784397363167</v>
+      </c>
+      <c r="R34">
+        <v>16.426706384179</v>
+      </c>
+      <c r="S34">
+        <v>0.002534409637021548</v>
+      </c>
+      <c r="T34">
+        <v>0.002821031758569007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>53.1378185</v>
+      </c>
+      <c r="H35">
+        <v>106.275637</v>
+      </c>
+      <c r="I35">
+        <v>0.9374210424316487</v>
+      </c>
+      <c r="J35">
+        <v>0.9142097782775648</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.04769766666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.143093</v>
+      </c>
+      <c r="O35">
+        <v>0.002502901303622343</v>
+      </c>
+      <c r="P35">
+        <v>0.002856694011683153</v>
+      </c>
+      <c r="Q35">
+        <v>2.534549954206833</v>
+      </c>
+      <c r="R35">
+        <v>15.207299725241</v>
+      </c>
+      <c r="S35">
+        <v>0.002346272349145189</v>
+      </c>
+      <c r="T35">
+        <v>0.002611617599027702</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>53.1378185</v>
+      </c>
+      <c r="H36">
+        <v>106.275637</v>
+      </c>
+      <c r="I36">
+        <v>0.9374210424316487</v>
+      </c>
+      <c r="J36">
+        <v>0.9142097782775648</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.414919</v>
+      </c>
+      <c r="N36">
+        <v>1.244757</v>
+      </c>
+      <c r="O36">
+        <v>0.02177258089489379</v>
+      </c>
+      <c r="P36">
+        <v>0.02485020139280528</v>
+      </c>
+      <c r="Q36">
+        <v>22.0478905142015</v>
+      </c>
+      <c r="R36">
+        <v>132.287343085209</v>
+      </c>
+      <c r="S36">
+        <v>0.02041007547891873</v>
+      </c>
+      <c r="T36">
+        <v>0.02271829710546935</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>53.1378185</v>
+      </c>
+      <c r="H37">
+        <v>106.275637</v>
+      </c>
+      <c r="I37">
+        <v>0.9374210424316487</v>
+      </c>
+      <c r="J37">
+        <v>0.9142097782775648</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>6.7278225</v>
+      </c>
+      <c r="N37">
+        <v>13.455645</v>
+      </c>
+      <c r="O37">
+        <v>0.3530377245383715</v>
+      </c>
+      <c r="P37">
+        <v>0.2686271200885743</v>
+      </c>
+      <c r="Q37">
+        <v>357.5018109052163</v>
+      </c>
+      <c r="R37">
+        <v>1430.007243620865</v>
+      </c>
+      <c r="S37">
+        <v>0.3309449917544574</v>
+      </c>
+      <c r="T37">
+        <v>0.2455815398955162</v>
       </c>
     </row>
   </sheetData>
